--- a/tests/data/group_variables/group_single_sheet.xlsx
+++ b/tests/data/group_variables/group_single_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/data/group_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8AB8ED-AA82-5742-8213-3DA9A392F2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8532E368-EEC0-FA44-B210-5BAB9B8ED5FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="3740" windowWidth="23400" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>variable</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -521,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -590,8 +593,11 @@
       <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -631,8 +637,11 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -675,8 +684,11 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -719,8 +731,11 @@
       <c r="T4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -748,19 +763,22 @@
       <c r="T5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J8" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F10" s="3"/>
     </row>
   </sheetData>
